--- a/螺纹钢回调初步分析.xlsx
+++ b/螺纹钢回调初步分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="螺纹钢主要网址" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>上涨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,34 @@
   </si>
   <si>
     <t>http://www.96369.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要地区钢材的价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.stats.gov.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家统计局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家大部分信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cei.gov.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国经济信息网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,20 +136,41 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -132,10 +181,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,41 +483,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -474,7 +647,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -612,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/螺纹钢回调初步分析.xlsx
+++ b/螺纹钢回调初步分析.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>上涨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>中国经济信息网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +490,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -541,7 +545,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
